--- a/biology/Zoologie/Cayuse_(cheval)/Cayuse_(cheval).xlsx
+++ b/biology/Zoologie/Cayuse_(cheval)/Cayuse_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les cayuses sont une race de chevaux éteinte, élevée par la tribu Amérindienne des Cayuses.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du français, à partir d'une prononciation erronée du mot caillou ; il s'applique à la fois à la tribu amérindienne et aux chevaux qu'elle élève[1]. Les premiers chevaux des Cayuses semblent venir de la tribu des Shoshones[1].
-Les colons américains ont capturé et revendu les chevaux des Cayuses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du français, à partir d'une prononciation erronée du mot caillou ; il s'applique à la fois à la tribu amérindienne et aux chevaux qu'elle élève. Les premiers chevaux des Cayuses semblent venir de la tribu des Shoshones.
+Les colons américains ont capturé et revendu les chevaux des Cayuses.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits chevaux, toisant environ 1,32 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits chevaux, toisant environ 1,32 m.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cayuse est enregistré comme race localement adaptée aux États-Unis, dans la base de données DAD-IS[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cayuse est enregistré comme race localement adaptée aux États-Unis, dans la base de données DAD-IS.
 </t>
         </is>
       </c>
